--- a/Cavity details.xlsx
+++ b/Cavity details.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkali\Dropbox (Weizmann Institute)\Michael Kali’s files\Home\Research\cavity-design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michaeka\Dropbox (Weizmann Institute)\Michael Kali’s files\Home\Research\cavity-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F113CD58-BD32-408E-AF91-7CDF8E712A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717C8ABA-D929-4268-89FE-C463C44C262F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28E137F5-53DE-4F77-89AE-A54727DCF69F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{28E137F5-53DE-4F77-89AE-A54727DCF69F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lens center thicnkess 4.33mm" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Material</t>
   </si>
@@ -74,9 +63,6 @@
     <t>Angle between side rays and surface (degrees)</t>
   </si>
   <si>
-    <t>67.15/88.13</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -114,6 +100,24 @@
   </si>
   <si>
     <t>Veritcal diameter/Height [m]</t>
+  </si>
+  <si>
+    <t>71.33/80.08</t>
+  </si>
+  <si>
+    <t>Right NA</t>
+  </si>
+  <si>
+    <t>Left NA</t>
+  </si>
+  <si>
+    <t>Finesse</t>
+  </si>
+  <si>
+    <t>roundtrip power losses:</t>
+  </si>
+  <si>
+    <t>Free Spectral Range [Hz]:</t>
   </si>
 </sst>
 </file>
@@ -171,9 +175,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +215,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -317,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,19 +471,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B50DF3-B8C6-40BE-B318-45B4C91779A8}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -490,7 +494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -504,9 +508,9 @@
         <v>0.30620000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>0.01</v>
@@ -518,9 +522,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -532,23 +536,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>2E-3</v>
@@ -560,9 +564,9 @@
         <v>2.4399999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>6.0000000000000001E-3</v>
@@ -576,7 +580,7 @@
         <v>7.3200000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -584,27 +588,27 @@
         <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>1E-4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -618,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -632,9 +636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>7.4999999999999997E-8</v>
@@ -646,7 +650,7 @@
         <v>7.4999999999999997E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -660,9 +664,9 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>1.31</v>
@@ -674,9 +678,9 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -688,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -702,9 +706,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -714,6 +718,46 @@
       </c>
       <c r="D17" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>457500000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.0411E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Cavity details.xlsx
+++ b/Cavity details.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michaeka\Dropbox (Weizmann Institute)\Michael Kali’s files\Home\Research\cavity-design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkali\Dropbox (Weizmann Institute)\Michael Kali’s files\Home\Research\cavity-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717C8ABA-D929-4268-89FE-C463C44C262F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F113CD58-BD32-408E-AF91-7CDF8E712A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{28E137F5-53DE-4F77-89AE-A54727DCF69F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28E137F5-53DE-4F77-89AE-A54727DCF69F}"/>
   </bookViews>
   <sheets>
-    <sheet name="lens center thicnkess 4.33mm" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Material</t>
   </si>
@@ -63,6 +74,9 @@
     <t>Angle between side rays and surface (degrees)</t>
   </si>
   <si>
+    <t>67.15/88.13</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -100,24 +114,6 @@
   </si>
   <si>
     <t>Veritcal diameter/Height [m]</t>
-  </si>
-  <si>
-    <t>71.33/80.08</t>
-  </si>
-  <si>
-    <t>Right NA</t>
-  </si>
-  <si>
-    <t>Left NA</t>
-  </si>
-  <si>
-    <t>Finesse</t>
-  </si>
-  <si>
-    <t>roundtrip power losses:</t>
-  </si>
-  <si>
-    <t>Free Spectral Range [Hz]:</t>
   </si>
 </sst>
 </file>
@@ -175,9 +171,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +211,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -321,7 +317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,19 +467,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B50DF3-B8C6-40BE-B318-45B4C91779A8}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -494,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -508,9 +504,9 @@
         <v>0.30620000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>0.01</v>
@@ -522,9 +518,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -536,23 +532,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>2E-3</v>
@@ -564,9 +560,9 @@
         <v>2.4399999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>6.0000000000000001E-3</v>
@@ -580,7 +576,7 @@
         <v>7.3200000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -588,27 +584,27 @@
         <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>1E-4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -622,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -636,9 +632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>7.4999999999999997E-8</v>
@@ -650,7 +646,7 @@
         <v>7.4999999999999997E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -664,9 +660,9 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>1.31</v>
@@ -678,9 +674,9 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -692,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -706,9 +702,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -718,46 +714,6 @@
       </c>
       <c r="D17" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="1">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1">
-        <v>457500000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1.0411E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Cavity details.xlsx
+++ b/Cavity details.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkali\Dropbox (Weizmann Institute)\Michael Kali’s files\Home\Research\cavity-design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michaeka\Dropbox (Weizmann Institute)\Michael Kali’s files\Home\Research\cavity-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F113CD58-BD32-408E-AF91-7CDF8E712A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F23DE6B-0026-4C4B-999B-659CC8EE2F51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28E137F5-53DE-4F77-89AE-A54727DCF69F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{28E137F5-53DE-4F77-89AE-A54727DCF69F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lens center thickness 5.9" sheetId="2" r:id="rId1"/>
+    <sheet name="lens center thicnkess 4.33mm" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
   <si>
     <t>Material</t>
   </si>
@@ -56,71 +46,155 @@
     <t>Left Mirror</t>
   </si>
   <si>
-    <t>poisson ratio</t>
-  </si>
-  <si>
-    <t>surface power absorption</t>
-  </si>
-  <si>
-    <t>Axial position [m]</t>
-  </si>
-  <si>
     <t>Index of refraction</t>
   </si>
   <si>
     <t>2E-03/2.44E-03</t>
   </si>
   <si>
-    <t>Angle between side rays and surface (degrees)</t>
-  </si>
-  <si>
-    <t>67.15/88.13</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1mm</t>
-  </si>
-  <si>
     <t>Radius of curvature [m]</t>
   </si>
   <si>
     <t>Center thickness [m]</t>
   </si>
   <si>
-    <t>Edge thickness [m]</t>
-  </si>
-  <si>
     <t>Spot size [m]</t>
   </si>
   <si>
-    <t>thermal conductivity [W/(m*K)]</t>
-  </si>
-  <si>
-    <t>thermal expansion [1/K]</t>
-  </si>
-  <si>
     <t>dn_dT [1/K]</t>
   </si>
   <si>
-    <t>volume power absorption [1/m]</t>
-  </si>
-  <si>
     <t>Transmissivity</t>
   </si>
   <si>
-    <t>~1-1E-04</t>
-  </si>
-  <si>
-    <t>Veritcal diameter/Height [m]</t>
+    <t>Right NA</t>
+  </si>
+  <si>
+    <t>Left NA</t>
+  </si>
+  <si>
+    <t>Finesse</t>
+  </si>
+  <si>
+    <t>0.0534/0.0653</t>
+  </si>
+  <si>
+    <t>Diameter [m]</t>
+  </si>
+  <si>
+    <t>Axial Displacement Tolerance</t>
+  </si>
+  <si>
+    <t>Transversal Displacement Tolerance</t>
+  </si>
+  <si>
+    <t>Tilt Angle Tolerance</t>
+  </si>
+  <si>
+    <t>Radius of Curvature Tolerance</t>
+  </si>
+  <si>
+    <t>Refractive Index Tolerance</t>
+  </si>
+  <si>
+    <t>Cavity properties</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Right length [m]</t>
+  </si>
+  <si>
+    <t>Left length [m]</t>
+  </si>
+  <si>
+    <t>Value for high power</t>
+  </si>
+  <si>
+    <t>Spot size (left side/right side) [m]</t>
+  </si>
+  <si>
+    <t>Value for low power</t>
+  </si>
+  <si>
+    <t>Thermal expansion coefficient [1/K]</t>
+  </si>
+  <si>
+    <t>Surface power absorption coefficient</t>
+  </si>
+  <si>
+    <t>Thermal conductivity coefficient [W/(m*K)]</t>
+  </si>
+  <si>
+    <t>Volume power absorption coefficient [1/m]</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>intensity_reflectivity</t>
+  </si>
+  <si>
+    <t>right mirror</t>
+  </si>
+  <si>
+    <t>lens</t>
+  </si>
+  <si>
+    <t>left mirror</t>
+  </si>
+  <si>
+    <t>cavity</t>
+  </si>
+  <si>
+    <t>71.71/79.65</t>
+  </si>
+  <si>
+    <t>Angle between side rays and lens [Degrees]</t>
+  </si>
+  <si>
+    <t>86.62/83.9</t>
+  </si>
+  <si>
+    <t>0.001842/0.002477</t>
+  </si>
+  <si>
+    <t>0.005528/0.007433</t>
+  </si>
+  <si>
+    <t>0.000604/0.000813</t>
+  </si>
+  <si>
+    <t>0.001814/0.00244</t>
+  </si>
+  <si>
+    <t>Axial Displacement Tolerance [m]</t>
+  </si>
+  <si>
+    <t>Transversal Displacement Tolerance [m]</t>
+  </si>
+  <si>
+    <t>Radius of Curvature Tolerance [m]</t>
+  </si>
+  <si>
+    <t>Temperature increase [K]</t>
+  </si>
+  <si>
+    <t>Same as high power</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>When the lens is 5.8mm thick at it's center, it can have 2mm of edge thickness and be wide enough to support the 0.007433[m] spot size of a 0.2NA beam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,16 +202,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -145,19 +247,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -170,10 +380,38 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8E9CE33E-0419-4F25-8DF2-FC4C0F793A5C}" name="Table4" displayName="Table4" ref="B1:D54" totalsRowShown="0">
+  <autoFilter ref="B1:D54" xr:uid="{0D8EF714-1335-4FA2-B1F1-FC2B5AFDFEF3}"/>
+  <sortState ref="B2:G54">
+    <sortCondition ref="E2:E54"/>
+    <sortCondition ref="G2:G54"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A2DA716C-E282-4D30-84B5-7525B3A2C7D7}" name="Parameter"/>
+    <tableColumn id="2" xr3:uid="{2233A094-8D1C-41DF-8497-2ADBB3DCC852}" name="Value for high power" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A6342CAE-EECB-425C-8AFE-46403A90363B}" name="Value for low power" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{997596E4-9B20-4FC5-B6B5-D89DBEFFC437}" name="Table3" displayName="Table3" ref="B1:D47" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B1:D47" xr:uid="{997596E4-9B20-4FC5-B6B5-D89DBEFFC437}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{703AB0FD-D4C7-4FA5-8FFC-10187A308E3C}" name="Parameter"/>
+    <tableColumn id="2" xr3:uid="{0BEEDA6B-D407-44E0-9695-8D3B916C02DF}" name="Value for high power" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{AA40A206-CEDD-4FA7-85D1-2A452B55EB25}" name="Value for low power" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +449,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -317,7 +555,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,264 +697,1397 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B50DF3-B8C6-40BE-B318-45B4C91779A8}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E588537-49EF-4339-9B38-EF74F497BAFE}">
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11">
+        <v>7.4999999999999997E-8</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1.31</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11">
+        <v>123.22</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2.4779699999999999E-3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>8.03E-4</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11">
+        <v>7.4330000000000004E-3</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2.4109999999999999E-3</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1.8810000000000001E-5</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.676E-3</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-7.5619999999999998E-6</v>
+      </c>
+      <c r="D13" s="11">
+        <v>-2.3750000000000001E-5</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-1.6449999999999999E-4</v>
+      </c>
+      <c r="D14" s="11">
+        <v>-8.5599999999999999E-4</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="11">
+        <v>-1.8810000000000001E-5</v>
+      </c>
+      <c r="D15" s="11">
+        <v>-1.6720000000000001E-3</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1.5169999999999999E-2</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11">
+        <v>5.8900000000000003E-3</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1.76</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="11">
+        <v>5.4999999999999999E-6</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="11">
+        <v>46.06</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1.17E-5</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="11">
+        <v>22.89</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1.2940000000000001E-7</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1.134E-5</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="11">
+        <v>-5.4690000000000001E-7</v>
+      </c>
+      <c r="D31" s="11">
+        <v>-1.734E-6</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="11">
+        <v>-5.04E-4</v>
+      </c>
+      <c r="D32" s="11">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="11">
+        <v>-1.631E-7</v>
+      </c>
+      <c r="D33" s="11">
+        <v>-1.431E-5</v>
+      </c>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="11">
+        <v>8.1880000000000002E-6</v>
+      </c>
+      <c r="D34" s="11">
+        <v>7.1599999999999995E-4</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="11">
+        <v>9.214E-3</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="11">
+        <v>7.4999999999999997E-8</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1.31</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="11">
+        <v>165.7</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1.8420000000000001E-3</v>
+      </c>
+      <c r="D43" s="11">
+        <v>5.5279999999999999E-3</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="11">
+        <v>6.0400000000000002E-3</v>
+      </c>
+      <c r="D44" s="11">
+        <v>1.8140000000000001E-3</v>
+      </c>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="11">
+        <v>-1.2849999999999999E-7</v>
+      </c>
+      <c r="D46" s="11">
+        <v>-1.128E-5</v>
+      </c>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="11">
+        <v>-5.5469999999999996E-7</v>
+      </c>
+      <c r="D47" s="11">
+        <v>-1.7659999999999999E-6</v>
+      </c>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="11">
+        <v>-6.05E-5</v>
+      </c>
+      <c r="D48" s="11">
+        <v>-1.92E-4</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="11">
+        <v>-1.2870000000000001E-7</v>
+      </c>
+      <c r="D49" s="11">
+        <v>-1.128E-5</v>
+      </c>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1.651E-2</v>
+      </c>
+      <c r="D50" s="11">
+        <v>5.3752355714199902E-3</v>
+      </c>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D52" s="11">
+        <v>6.5651375522518499E-2</v>
+      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1.8428E-2</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="11">
+        <v>8681.2000000000007</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A35"/>
+    <mergeCell ref="A36:A49"/>
+    <mergeCell ref="A50:A54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B50DF3-B8C6-40BE-B318-45B4C91779A8}">
+  <dimension ref="A1:Q47"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.3400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.4999999999999997E-8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.4999999999999997E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1.3199999999999999E-7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-2.7124999999999999E-5</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-3.7899999999999999E-7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1.59375E-6</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-3.8000000000000002E-5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1.5999999999999901E-4</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-1.3199999999999999E-7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-2.7124999999999999E-5</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>-1.8169999999999999E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.30620000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="C14" s="1">
         <v>1.562E-2</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D14" s="1">
+        <v>1.562E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.3299999999999996E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.3300000000000005E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.3299999999999996E-3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.4399999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="C17" s="1">
         <f>0.00244*3</f>
         <v>7.3200000000000001E-3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D17" s="1">
         <f>0.00244*3</f>
         <v>7.3200000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <f>1-0.0001</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <f>1-0.0001</f>
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.4999999999999999E-6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.4999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1">
+        <v>46.06</v>
+      </c>
+      <c r="D23" s="1">
+        <v>46.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
-        <v>90</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C24" s="1">
+        <v>1.17E-5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.17E-5</v>
+      </c>
+      <c r="F24" s="1">
+        <f>C25*C15*2+C22+4*100*10^-6+C5*2</f>
+        <v>8.608E-4</v>
+      </c>
+      <c r="G24" s="1">
+        <f>1/F24</f>
+        <v>1161.7100371747213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.3300000000000001E-7</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.9E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-3.6699999999999999E-7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1.5629999999999999E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-4.64E-4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1.952E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-1.6899999999999999E-7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-3.6999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8.2500000000000006E-6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.14990000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6.3199999999999997E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1">
+        <f>0.00244*3</f>
+        <v>7.3200000000000001E-3</v>
+      </c>
+      <c r="D33" s="1">
+        <f>0.00244*3</f>
+        <v>7.3200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C34" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7.4999999999999997E-8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7.4999999999999997E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.98E-5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-5.0599999999999998E-6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-2.0999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-6.8999999999999997E-5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-3.2799999999999897E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-1.98E-5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-4.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.76</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7.4999999999999997E-8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5.4999999999999999E-6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7.4999999999999997E-8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1.31</v>
-      </c>
-      <c r="C14" s="1">
-        <v>46.06</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.17E-5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1">
         <v>0.3</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
+      <c r="D44" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5.3400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="1">
+        <v>603.5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>603.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A30"/>
+    <mergeCell ref="A31:A42"/>
+    <mergeCell ref="A43:A47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Cavity details.xlsx
+++ b/Cavity details.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michaeka\Dropbox (Weizmann Institute)\Michael Kali’s files\Home\Research\cavity-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F23DE6B-0026-4C4B-999B-659CC8EE2F51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07755B45-86CC-4012-B190-B47306C1828B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{28E137F5-53DE-4F77-89AE-A54727DCF69F}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{28E137F5-53DE-4F77-89AE-A54727DCF69F}"/>
   </bookViews>
   <sheets>
-    <sheet name="lens center thickness 5.9" sheetId="2" r:id="rId1"/>
-    <sheet name="lens center thicnkess 4.33mm" sheetId="1" r:id="rId2"/>
+    <sheet name="Cavity with round geometies" sheetId="4" r:id="rId1"/>
+    <sheet name="lens center thickness 5.9 - fix" sheetId="3" r:id="rId2"/>
+    <sheet name="lens center thicnkess 4.33mm" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="57">
   <si>
     <t>Material</t>
   </si>
@@ -133,61 +134,70 @@
     <t>Element</t>
   </si>
   <si>
-    <t>intensity_reflectivity</t>
-  </si>
-  <si>
-    <t>right mirror</t>
-  </si>
-  <si>
-    <t>lens</t>
-  </si>
-  <si>
-    <t>left mirror</t>
-  </si>
-  <si>
-    <t>cavity</t>
-  </si>
-  <si>
-    <t>71.71/79.65</t>
-  </si>
-  <si>
-    <t>Angle between side rays and lens [Degrees]</t>
-  </si>
-  <si>
-    <t>86.62/83.9</t>
-  </si>
-  <si>
-    <t>0.001842/0.002477</t>
-  </si>
-  <si>
-    <t>0.005528/0.007433</t>
-  </si>
-  <si>
-    <t>0.000604/0.000813</t>
-  </si>
-  <si>
-    <t>0.001814/0.00244</t>
-  </si>
-  <si>
-    <t>Axial Displacement Tolerance [m]</t>
-  </si>
-  <si>
-    <t>Transversal Displacement Tolerance [m]</t>
-  </si>
-  <si>
-    <t>Radius of Curvature Tolerance [m]</t>
-  </si>
-  <si>
-    <t>Temperature increase [K]</t>
-  </si>
-  <si>
-    <t>Same as high power</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
     <t>When the lens is 5.8mm thick at it's center, it can have 2mm of edge thickness and be wide enough to support the 0.007433[m] spot size of a 0.2NA beam</t>
+  </si>
+  <si>
+    <t>"Diameter" is the minimal diameter that is required to contain 3 time the stop size</t>
+  </si>
+  <si>
+    <t>Same as in hot</t>
+  </si>
+  <si>
+    <t>Tolerance - transversal displacement</t>
+  </si>
+  <si>
+    <t>Tolerance - tilt angle</t>
+  </si>
+  <si>
+    <t>Tolerance - radius of Curvature</t>
+  </si>
+  <si>
+    <t>Tolerance - axial displacement</t>
+  </si>
+  <si>
+    <t>Temperature raise [K]</t>
+  </si>
+  <si>
+    <t>Minimal allowed diameter [m]</t>
+  </si>
+  <si>
+    <t>Intensity reflectivity</t>
+  </si>
+  <si>
+    <t>Angle of incidence [deg]</t>
+  </si>
+  <si>
+    <t>Lens_left</t>
+  </si>
+  <si>
+    <t>Tolerance - refractive Index</t>
+  </si>
+  <si>
+    <t>Cavity</t>
+  </si>
+  <si>
+    <t>NA_right</t>
+  </si>
+  <si>
+    <t>NA_left</t>
+  </si>
+  <si>
+    <t>length_right</t>
+  </si>
+  <si>
+    <t>length_left</t>
+  </si>
+  <si>
+    <t>Power [kW]</t>
+  </si>
+  <si>
+    <t>Lens_right</t>
+  </si>
+  <si>
+    <t>The parameters where chosen such that: 1) the lengths of the left arm is 2cm, 2) the lens radius and the small mirrors radius are round numbers 3)the thickness of the lens allows for wide enough lens that supports 0.2NA</t>
   </si>
 </sst>
 </file>
@@ -239,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -291,57 +301,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -381,28 +420,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8E9CE33E-0419-4F25-8DF2-FC4C0F793A5C}" name="Table4" displayName="Table4" ref="B1:D54" totalsRowShown="0">
-  <autoFilter ref="B1:D54" xr:uid="{0D8EF714-1335-4FA2-B1F1-FC2B5AFDFEF3}"/>
-  <sortState ref="B2:G54">
-    <sortCondition ref="E2:E54"/>
-    <sortCondition ref="G2:G54"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87CE6D35-3DAB-439E-92D6-DA8864AD2794}" name="Table13" displayName="Table13" ref="B1:D58" totalsRowShown="0">
+  <autoFilter ref="B1:D58" xr:uid="{368A31A9-78F7-4DED-B71A-C22FE28B4456}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A2DA716C-E282-4D30-84B5-7525B3A2C7D7}" name="Parameter"/>
-    <tableColumn id="2" xr3:uid="{2233A094-8D1C-41DF-8497-2ADBB3DCC852}" name="Value for high power" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{A6342CAE-EECB-425C-8AFE-46403A90363B}" name="Value for low power" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{01556D97-3D45-4397-9D83-0AC8F51C2A24}" name="Parameter"/>
+    <tableColumn id="2" xr3:uid="{7F0209C7-6AC9-4D9D-A79C-139FD192DFC5}" name="Value for high power" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9BF5CA4D-3FF7-4E37-9072-4B0783994F8D}" name="Value for low power" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{997596E4-9B20-4FC5-B6B5-D89DBEFFC437}" name="Table3" displayName="Table3" ref="B1:D47" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{358B5A2D-4CB7-4E47-B376-BA0F4FA5316D}" name="Table1" displayName="Table1" ref="B1:D58" totalsRowShown="0">
+  <autoFilter ref="B1:D58" xr:uid="{BDFEF0EF-548A-487B-90CC-2163F9EB1C3B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{894A7F85-E9DF-4996-ABE2-D242AADFA0CC}" name="Parameter"/>
+    <tableColumn id="2" xr3:uid="{65C410CD-047D-416A-A01E-480FBF9A38CF}" name="Value for high power" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{303972E2-75E8-45E0-B1D7-2EA40B728765}" name="Value for low power" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{997596E4-9B20-4FC5-B6B5-D89DBEFFC437}" name="Table3" displayName="Table3" ref="B1:D47" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B1:D47" xr:uid="{997596E4-9B20-4FC5-B6B5-D89DBEFFC437}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{703AB0FD-D4C7-4FA5-8FFC-10187A308E3C}" name="Parameter"/>
-    <tableColumn id="2" xr3:uid="{0BEEDA6B-D407-44E0-9695-8D3B916C02DF}" name="Value for high power" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{AA40A206-CEDD-4FA7-85D1-2A452B55EB25}" name="Value for low power" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0BEEDA6B-D407-44E0-9695-8D3B916C02DF}" name="Value for high power" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{AA40A206-CEDD-4FA7-85D1-2A452B55EB25}" name="Value for low power" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -704,749 +751,751 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E588537-49EF-4339-9B38-EF74F497BAFE}">
-  <dimension ref="A1:J55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6574399B-089B-4FF0-8C59-A0DB8D9BDB0A}">
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="J1" t="s">
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8447.91</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.9426700000000002E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.89969E-3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.1750200000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C6" s="1">
+        <v>0.26967400000000002</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.99988900000000003</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.7524899999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s">
+      <c r="C11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9.1749500000000005E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30.534400000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C16" s="1">
         <v>7.4999999999999997E-8</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" t="s">
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-1.0473600000000001E-7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-2.3750000000000001E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-1.0473600000000001E-7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-2.3750000000000001E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-4.2500000000000003E-5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-9.3999999999999994E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-4.2578100000000002E-7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-9.3750000000000002E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.7598499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.6000199999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C27" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s">
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="11">
-        <v>1.31</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s">
+      <c r="C28" s="1">
+        <v>46.06</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5.4999999999999999E-6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.05713E-7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.3906200000000002E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-1.2999599999999999E-7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-2.9374999999999998E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6.1718699999999997E-6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.395E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-3.9199999999999999E-4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-8.6399999999999997E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-4.1015600000000001E-7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-9.0625000000000001E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11">
-        <v>1E-4</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="11">
-        <v>123.22</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C35" s="1">
+        <v>0.99989899999999998</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.17E-5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7.8584999999999992E-3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.6052900000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1">
+        <v>79.464299999999994</v>
+      </c>
+      <c r="D39" s="1">
+        <v>85.182599999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.6194999999999999E-3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.2017600000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4.5592699999999997</v>
+      </c>
+      <c r="D41" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2.4779699999999999E-3</v>
-      </c>
-      <c r="D9" s="11">
-        <v>8.03E-4</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="11">
-        <v>7.4330000000000004E-3</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2.4109999999999999E-3</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1.8810000000000001E-5</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1.676E-3</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="11">
-        <v>-7.5619999999999998E-6</v>
-      </c>
-      <c r="D13" s="11">
-        <v>-2.3750000000000001E-5</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="11">
-        <v>-1.6449999999999999E-4</v>
-      </c>
-      <c r="D14" s="11">
-        <v>-8.5599999999999999E-4</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="11">
-        <v>-1.8810000000000001E-5</v>
-      </c>
-      <c r="D15" s="11">
-        <v>-1.6720000000000001E-3</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1.5169999999999999E-2</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="11">
-        <v>5.8900000000000003E-3</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1.76</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="11">
-        <v>5.4999999999999999E-6</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="11">
-        <v>46.06</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="11">
-        <v>1.17E-5</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="11">
-        <v>1E-4</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="11">
-        <v>22.89</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="11" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="11">
-        <v>1.2940000000000001E-7</v>
-      </c>
-      <c r="D30" s="11">
-        <v>1.134E-5</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="11">
-        <v>-5.4690000000000001E-7</v>
-      </c>
-      <c r="D31" s="11">
-        <v>-1.734E-6</v>
-      </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="11">
-        <v>-5.04E-4</v>
-      </c>
-      <c r="D32" s="11">
-        <v>-1.6000000000000001E-3</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="11">
-        <v>-1.631E-7</v>
-      </c>
-      <c r="D33" s="11">
-        <v>-1.431E-5</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="11">
-        <v>8.1880000000000002E-6</v>
-      </c>
-      <c r="D34" s="11">
-        <v>7.1599999999999995E-4</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="11">
-        <v>9.214E-3</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="11">
-        <v>7.4999999999999997E-8</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="11">
-        <v>1.31</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="11">
-        <v>1E-4</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="11">
-        <v>165.7</v>
-      </c>
-      <c r="D42" s="11">
-        <v>0</v>
-      </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="C42" s="1">
+        <v>71.509299999999996</v>
+      </c>
+      <c r="D42" s="1">
+        <v>81.470399999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
       <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="11">
-        <v>1.8420000000000001E-3</v>
-      </c>
-      <c r="D43" s="11">
-        <v>5.5279999999999999E-3</v>
-      </c>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="C43" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9.1752299999999995E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
       <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="11">
-        <v>6.0400000000000002E-3</v>
-      </c>
-      <c r="D44" s="11">
-        <v>1.8140000000000001E-3</v>
-      </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.5592699999999997</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
       <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="11">
-        <v>-1.2849999999999999E-7</v>
-      </c>
-      <c r="D46" s="11">
-        <v>-1.128E-5</v>
-      </c>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.99988900000000003</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
       <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="11">
-        <v>-5.5469999999999996E-7</v>
-      </c>
-      <c r="D47" s="11">
-        <v>-1.7659999999999999E-6</v>
-      </c>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7.8584999999999992E-3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.59837E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
       <c r="B48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="11">
-        <v>-6.05E-5</v>
-      </c>
-      <c r="D48" s="11">
-        <v>-1.92E-4</v>
-      </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.13484299999999999</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
       <c r="B49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="11">
-        <v>-1.2870000000000001E-7</v>
-      </c>
-      <c r="D49" s="11">
-        <v>-1.128E-5</v>
-      </c>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.6194999999999999E-3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.1994600000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="1">
+        <v>23.313099999999999</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7.4999999999999997E-8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.10937E-5</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2.52E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="1">
+        <v>-1.10937E-5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-2.52E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="1">
+        <v>-8.7999999999999998E-5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-2.0599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="11">
-        <v>1.651E-2</v>
-      </c>
-      <c r="D50" s="11">
-        <v>5.3752355714199902E-3</v>
-      </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="D52" s="11">
-        <v>6.5651375522518499E-2</v>
-      </c>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="11">
-        <v>1.8428E-2</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="11">
-        <v>8681.2000000000007</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+      <c r="C57" s="1">
+        <v>-4.8749999999999999E-6</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-1.075E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A35"/>
-    <mergeCell ref="A36:A49"/>
-    <mergeCell ref="A50:A54"/>
+  <mergeCells count="6">
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A22:A38"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1456,11 +1505,753 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7566166C-141F-4597-A1A9-3B1B0AFF6869}">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8681.2099999999991</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.65188E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7.9707000000000007E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.6671800000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.30000700000000002</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.8428E-2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.99989899999999998</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.5284000000000002E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.6721800000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.2140099999999999E-3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.8427999999999999E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.9072800000000003E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
+        <v>33.139099999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.4999999999999997E-8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-1.2846900000000001E-7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-2.3593699999999998E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-1.2842100000000001E-7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-2.3593699999999998E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-6.05E-5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-1.26E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-5.5468700000000002E-7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-1.16406E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.7598400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.5166300000000001E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.5166499999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1">
+        <v>46.06</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5.4999999999999999E-6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.2942400000000001E-7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.3750000000000001E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-1.6308600000000001E-7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-3.0000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8.1875000000000008E-6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.505E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-5.04E-4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-1.0560000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-5.4687499999999995E-7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-1.1484399999999999E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.99989899999999998</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.17E-5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7.4339000000000002E-3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.5934500000000002E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1">
+        <v>79.650099999999995</v>
+      </c>
+      <c r="D39" s="1">
+        <v>85.013499999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.4779699999999999E-3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.19782E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4.5777900000000002</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1">
+        <v>71.710999999999999</v>
+      </c>
+      <c r="D42" s="1">
+        <v>81.1113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.8427999999999999E-3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8.90754E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.5777900000000002</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.99989899999999998</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7.4339000000000002E-3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.5848799999999999E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.15001400000000001</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.4779699999999999E-3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.1949599999999999E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="1">
+        <v>24.6447</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7.4999999999999997E-8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.88125E-5</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3.48E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="1">
+        <v>-1.88125E-5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-3.4699999999999998E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="1">
+        <v>-1.6449999999999999E-4</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-5.1599999999999997E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="1">
+        <v>-7.5625E-6</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-1.5875E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="A22:A38"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B50DF3-B8C6-40BE-B318-45B4C91779A8}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cavity details.xlsx
+++ b/Cavity details.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michaeka\Dropbox (Weizmann Institute)\Michael Kali’s files\Home\Research\cavity-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07755B45-86CC-4012-B190-B47306C1828B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4A4FEA-76C5-43BC-8415-70ED43540CFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{28E137F5-53DE-4F77-89AE-A54727DCF69F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cavity with round geometies" sheetId="4" r:id="rId1"/>
-    <sheet name="lens center thickness 5.9 - fix" sheetId="3" r:id="rId2"/>
+    <sheet name="lens center thickness 5.9 - 2.0" sheetId="6" r:id="rId1"/>
+    <sheet name="Cavity with round geometies" sheetId="4" r:id="rId2"/>
     <sheet name="lens center thicnkess 4.33mm" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="57">
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value for high power</t>
+  </si>
+  <si>
+    <t>Value for low power</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Cavity</t>
+  </si>
+  <si>
+    <t>Power [kW]</t>
+  </si>
+  <si>
+    <t>When the lens is 5.8mm thick at it's center, it can have 2mm of edge thickness and be wide enough to support the 0.007433[m] spot size of a 0.2NA beam</t>
+  </si>
+  <si>
+    <t>Finesse</t>
+  </si>
+  <si>
+    <t>Same as in hot</t>
+  </si>
+  <si>
+    <t>"Diameter" is the minimal diameter that is required to contain 3 time the stop size</t>
+  </si>
+  <si>
+    <t>NA_right</t>
+  </si>
+  <si>
+    <t>The parameters where chosen such that: 1) the lengths of the left arm is 2cm, 2) the lens radius and the small mirrors radius are round numbers 3)the thickness of the lens allows for wide enough lens that supports 0.2NA</t>
+  </si>
+  <si>
+    <t>NA_left</t>
+  </si>
+  <si>
+    <t>length_right</t>
+  </si>
+  <si>
+    <t>length_left</t>
+  </si>
+  <si>
+    <t>Left Mirror</t>
+  </si>
   <si>
     <t>Material</t>
   </si>
@@ -35,169 +86,118 @@
     <t>ULE</t>
   </si>
   <si>
+    <t>Intensity reflectivity</t>
+  </si>
+  <si>
+    <t>Minimal allowed diameter [m]</t>
+  </si>
+  <si>
+    <t>Radius of curvature [m]</t>
+  </si>
+  <si>
+    <t>Spot size [m]</t>
+  </si>
+  <si>
+    <t>Surface power absorption coefficient</t>
+  </si>
+  <si>
+    <t>Temperature raise [K]</t>
+  </si>
+  <si>
+    <t>Thermal conductivity coefficient [W/(m*K)]</t>
+  </si>
+  <si>
+    <t>Thermal expansion coefficient [1/K]</t>
+  </si>
+  <si>
+    <t>Tolerance - axial displacement</t>
+  </si>
+  <si>
+    <t>Tolerance - radius of Curvature</t>
+  </si>
+  <si>
+    <t>Tolerance - tilt angle</t>
+  </si>
+  <si>
+    <t>Tolerance - transversal displacement</t>
+  </si>
+  <si>
+    <t>Transmissivity</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>Sapphire</t>
   </si>
   <si>
+    <t>Center thickness [m]</t>
+  </si>
+  <si>
+    <t>Index of refraction</t>
+  </si>
+  <si>
+    <t>Tolerance - refractive Index</t>
+  </si>
+  <si>
+    <t>Volume power absorption coefficient [1/m]</t>
+  </si>
+  <si>
+    <t>dn_dT [1/K]</t>
+  </si>
+  <si>
+    <t>Lens_left</t>
+  </si>
+  <si>
+    <t>Angle of incidence [deg]</t>
+  </si>
+  <si>
+    <t>Lens_right</t>
+  </si>
+  <si>
     <t>Right Mirror</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Left Mirror</t>
-  </si>
-  <si>
-    <t>Index of refraction</t>
+    <t>Diameter [m]</t>
+  </si>
+  <si>
+    <t>Axial Displacement Tolerance</t>
+  </si>
+  <si>
+    <t>Transversal Displacement Tolerance</t>
+  </si>
+  <si>
+    <t>Tilt Angle Tolerance</t>
+  </si>
+  <si>
+    <t>Radius of Curvature Tolerance</t>
+  </si>
+  <si>
+    <t>Spot size (left side/right side) [m]</t>
   </si>
   <si>
     <t>2E-03/2.44E-03</t>
   </si>
   <si>
-    <t>Radius of curvature [m]</t>
-  </si>
-  <si>
-    <t>Center thickness [m]</t>
-  </si>
-  <si>
-    <t>Spot size [m]</t>
-  </si>
-  <si>
-    <t>dn_dT [1/K]</t>
-  </si>
-  <si>
-    <t>Transmissivity</t>
+    <t>0.0534/0.0653</t>
+  </si>
+  <si>
+    <t>Refractive Index Tolerance</t>
+  </si>
+  <si>
+    <t>Cavity properties</t>
   </si>
   <si>
     <t>Right NA</t>
   </si>
   <si>
+    <t>Right length [m]</t>
+  </si>
+  <si>
     <t>Left NA</t>
   </si>
   <si>
-    <t>Finesse</t>
-  </si>
-  <si>
-    <t>0.0534/0.0653</t>
-  </si>
-  <si>
-    <t>Diameter [m]</t>
-  </si>
-  <si>
-    <t>Axial Displacement Tolerance</t>
-  </si>
-  <si>
-    <t>Transversal Displacement Tolerance</t>
-  </si>
-  <si>
-    <t>Tilt Angle Tolerance</t>
-  </si>
-  <si>
-    <t>Radius of Curvature Tolerance</t>
-  </si>
-  <si>
-    <t>Refractive Index Tolerance</t>
-  </si>
-  <si>
-    <t>Cavity properties</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Right length [m]</t>
-  </si>
-  <si>
     <t>Left length [m]</t>
-  </si>
-  <si>
-    <t>Value for high power</t>
-  </si>
-  <si>
-    <t>Spot size (left side/right side) [m]</t>
-  </si>
-  <si>
-    <t>Value for low power</t>
-  </si>
-  <si>
-    <t>Thermal expansion coefficient [1/K]</t>
-  </si>
-  <si>
-    <t>Surface power absorption coefficient</t>
-  </si>
-  <si>
-    <t>Thermal conductivity coefficient [W/(m*K)]</t>
-  </si>
-  <si>
-    <t>Volume power absorption coefficient [1/m]</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>When the lens is 5.8mm thick at it's center, it can have 2mm of edge thickness and be wide enough to support the 0.007433[m] spot size of a 0.2NA beam</t>
-  </si>
-  <si>
-    <t>"Diameter" is the minimal diameter that is required to contain 3 time the stop size</t>
-  </si>
-  <si>
-    <t>Same as in hot</t>
-  </si>
-  <si>
-    <t>Tolerance - transversal displacement</t>
-  </si>
-  <si>
-    <t>Tolerance - tilt angle</t>
-  </si>
-  <si>
-    <t>Tolerance - radius of Curvature</t>
-  </si>
-  <si>
-    <t>Tolerance - axial displacement</t>
-  </si>
-  <si>
-    <t>Temperature raise [K]</t>
-  </si>
-  <si>
-    <t>Minimal allowed diameter [m]</t>
-  </si>
-  <si>
-    <t>Intensity reflectivity</t>
-  </si>
-  <si>
-    <t>Angle of incidence [deg]</t>
-  </si>
-  <si>
-    <t>Lens_left</t>
-  </si>
-  <si>
-    <t>Tolerance - refractive Index</t>
-  </si>
-  <si>
-    <t>Cavity</t>
-  </si>
-  <si>
-    <t>NA_right</t>
-  </si>
-  <si>
-    <t>NA_left</t>
-  </si>
-  <si>
-    <t>length_right</t>
-  </si>
-  <si>
-    <t>length_left</t>
-  </si>
-  <si>
-    <t>Power [kW]</t>
-  </si>
-  <si>
-    <t>Lens_right</t>
-  </si>
-  <si>
-    <t>The parameters where chosen such that: 1) the lengths of the left arm is 2cm, 2) the lens radius and the small mirrors radius are round numbers 3)the thickness of the lens allows for wide enough lens that supports 0.2NA</t>
   </si>
 </sst>
 </file>
@@ -329,11 +329,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,39 +365,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
@@ -406,6 +404,12 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -420,36 +424,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87CE6D35-3DAB-439E-92D6-DA8864AD2794}" name="Table13" displayName="Table13" ref="B1:D58" totalsRowShown="0">
-  <autoFilter ref="B1:D58" xr:uid="{368A31A9-78F7-4DED-B71A-C22FE28B4456}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1205A83D-8385-46DC-B7CF-D4405692D6F4}" name="Table16" displayName="Table16" ref="B1:D58" totalsRowShown="0">
+  <autoFilter ref="B1:D58" xr:uid="{89F47509-26DD-44A3-B283-DACD5F500EEE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{01556D97-3D45-4397-9D83-0AC8F51C2A24}" name="Parameter"/>
-    <tableColumn id="2" xr3:uid="{7F0209C7-6AC9-4D9D-A79C-139FD192DFC5}" name="Value for high power" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9BF5CA4D-3FF7-4E37-9072-4B0783994F8D}" name="Value for low power" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5C2E3787-3F2A-4ADA-8F20-7FE791589C05}" name="Parameter"/>
+    <tableColumn id="2" xr3:uid="{FD7E6AEA-D2FF-42B8-AD8D-B10A57B45AD1}" name="Value for high power" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D2F551D3-D65C-44CA-A7A2-2467A3165C87}" name="Value for low power" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{358B5A2D-4CB7-4E47-B376-BA0F4FA5316D}" name="Table1" displayName="Table1" ref="B1:D58" totalsRowShown="0">
-  <autoFilter ref="B1:D58" xr:uid="{BDFEF0EF-548A-487B-90CC-2163F9EB1C3B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87CE6D35-3DAB-439E-92D6-DA8864AD2794}" name="Table13" displayName="Table13" ref="B1:D58" totalsRowShown="0">
+  <autoFilter ref="B1:D58" xr:uid="{368A31A9-78F7-4DED-B71A-C22FE28B4456}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{894A7F85-E9DF-4996-ABE2-D242AADFA0CC}" name="Parameter"/>
-    <tableColumn id="2" xr3:uid="{65C410CD-047D-416A-A01E-480FBF9A38CF}" name="Value for high power" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{303972E2-75E8-45E0-B1D7-2EA40B728765}" name="Value for low power" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{01556D97-3D45-4397-9D83-0AC8F51C2A24}" name="Parameter"/>
+    <tableColumn id="2" xr3:uid="{7F0209C7-6AC9-4D9D-A79C-139FD192DFC5}" name="Value for high power" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9BF5CA4D-3FF7-4E37-9072-4B0783994F8D}" name="Value for low power" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{997596E4-9B20-4FC5-B6B5-D89DBEFFC437}" name="Table3" displayName="Table3" ref="B1:D47" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{997596E4-9B20-4FC5-B6B5-D89DBEFFC437}" name="Table3" displayName="Table3" ref="B1:D47" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B1:D47" xr:uid="{997596E4-9B20-4FC5-B6B5-D89DBEFFC437}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{703AB0FD-D4C7-4FA5-8FFC-10187A308E3C}" name="Parameter"/>
-    <tableColumn id="2" xr3:uid="{0BEEDA6B-D407-44E0-9695-8D3B916C02DF}" name="Value for high power" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{AA40A206-CEDD-4FA7-85D1-2A452B55EB25}" name="Value for low power" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0BEEDA6B-D407-44E0-9695-8D3B916C02DF}" name="Value for high power" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{AA40A206-CEDD-4FA7-85D1-2A452B55EB25}" name="Value for low power" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -751,11 +755,753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACFF190-2E57-4622-A098-733AE6F5A532}">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8681.2099999999991</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.65188E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.8113699999999997E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.0810499999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.30000700000000002</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.8428E-2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.99989899999999998</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.5284000000000002E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.95729E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.2140099999999999E-3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.8427999999999999E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6.5243099999999997E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>33.139099999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.4999999999999997E-8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.2854799999999999E-7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8.2812499999999997E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.2851800000000001E-7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8.2812499999999997E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.05E-5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.76E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.5468700000000002E-7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.6249999999999999E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.7593799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.5166300000000001E-2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>46.06</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5.4999999999999999E-6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.2952699999999999E-7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.3437499999999995E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.6308600000000001E-7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.0499999999999999E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8.1875000000000008E-6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.2599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5.04E-4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.472E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5.4687499999999995E-7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.59375E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.99989899999999998</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.17E-5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7.4339000000000002E-3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.63255E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1">
+        <v>18.289000000000001</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6.5161800000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.8427999999999999E-3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6.5249999999999998E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4.5777900000000002</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10.3499</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.6499299999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.4779699999999999E-3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8.7751799999999998E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.5777900000000002</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.99989899999999998</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7.4339000000000002E-3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.60948E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.15001400000000001</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.4779699999999999E-3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8.6982699999999999E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1">
+        <v>24.6447</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7.4999999999999997E-8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.88125E-5</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.2279999999999999E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.88125E-5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.2279999999999999E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.6449999999999999E-4</v>
+      </c>
+      <c r="D56" s="1">
+        <v>7.76E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1">
+        <v>7.5625E-6</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2.1999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="A22:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6574399B-089B-4FF0-8C59-A0DB8D9BDB0A}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,27 +1514,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>49</v>
+      <c r="A2" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -797,28 +1543,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="12"/>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>8447.91</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="8" t="s">
-        <v>50</v>
+      <c r="A4" s="12"/>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>1.9426700000000002E-2</v>
@@ -827,13 +1573,13 @@
         <v>8.89969E-3</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="7" t="s">
-        <v>51</v>
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>0.2</v>
@@ -843,59 +1589,59 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="8" t="s">
-        <v>52</v>
+      <c r="A6" s="12"/>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>0.26967400000000002</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="7" t="s">
-        <v>53</v>
+      <c r="A7" s="13"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>0.02</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>38</v>
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>0.99988900000000003</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="9"/>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>6.0000000000000001E-3</v>
@@ -905,21 +1651,21 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>0.01</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="9"/>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>2E-3</v>
@@ -929,21 +1675,21 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="9"/>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>30.534400000000002</v>
@@ -953,33 +1699,33 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="9"/>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>1.31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="9"/>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>7.4999999999999997E-8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="9"/>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <v>-1.0473600000000001E-7</v>
@@ -989,9 +1735,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="9"/>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <v>-1.0473600000000001E-7</v>
@@ -1001,9 +1747,9 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="9"/>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
         <v>-4.2500000000000003E-5</v>
@@ -1013,9 +1759,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>-4.2578100000000002E-7</v>
@@ -1025,47 +1771,47 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
         <v>1E-4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>38</v>
+      <c r="A22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="12"/>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="12"/>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1">
         <v>1.76</v>
@@ -1075,21 +1821,21 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="12"/>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
         <v>1E-4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="12"/>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
         <v>1.6E-2</v>
@@ -1099,45 +1845,45 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="12"/>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="12"/>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <v>46.06</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="12"/>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <v>5.4999999999999999E-6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="12"/>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <v>1.05713E-7</v>
@@ -1147,9 +1893,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="12"/>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <v>-1.2999599999999999E-7</v>
@@ -1159,9 +1905,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="12"/>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1">
         <v>6.1718699999999997E-6</v>
@@ -1171,9 +1917,9 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="A33" s="12"/>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1">
         <v>-3.9199999999999999E-4</v>
@@ -1183,9 +1929,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="12"/>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
         <v>-4.1015600000000001E-7</v>
@@ -1195,45 +1941,45 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="12"/>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1">
         <v>0.99989899999999998</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="12"/>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
         <v>0.01</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" t="s">
-        <v>11</v>
       </c>
       <c r="C37" s="1">
         <v>1.17E-5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="13"/>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
         <v>7.8584999999999992E-3</v>
@@ -1243,11 +1989,11 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>47</v>
+      <c r="A39" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1">
         <v>79.464299999999994</v>
@@ -1257,9 +2003,9 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="9"/>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1">
         <v>2.6194999999999999E-3</v>
@@ -1269,9 +2015,9 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="10"/>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
         <v>4.5592699999999997</v>
@@ -1281,11 +2027,11 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>55</v>
+      <c r="A42" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <v>71.509299999999996</v>
@@ -1295,9 +2041,9 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="12"/>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1">
         <v>2E-3</v>
@@ -1307,9 +2053,9 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="13"/>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1">
         <v>4.5592699999999997</v>
@@ -1319,35 +2065,35 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>3</v>
+      <c r="A45" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="9"/>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1">
         <v>0.99988900000000003</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="9"/>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
         <v>7.8584999999999992E-3</v>
@@ -1357,21 +2103,21 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="9"/>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1">
         <v>0.13484299999999999</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="9"/>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1">
         <v>2.6194999999999999E-3</v>
@@ -1381,21 +2127,21 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="9"/>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C50" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="9"/>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C51" s="1">
         <v>23.313099999999999</v>
@@ -1405,33 +2151,33 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="9"/>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1">
         <v>1.31</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="9"/>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1">
         <v>7.4999999999999997E-8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="9"/>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1">
         <v>1.10937E-5</v>
@@ -1441,9 +2187,9 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="A55" s="9"/>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C55" s="1">
         <v>-1.10937E-5</v>
@@ -1453,9 +2199,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="A56" s="9"/>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C56" s="1">
         <v>-8.7999999999999998E-5</v>
@@ -1465,9 +2211,9 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="A57" s="9"/>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C57" s="1">
         <v>-4.8749999999999999E-6</v>
@@ -1477,15 +2223,15 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="10"/>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C58" s="1">
         <v>1E-4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1496,748 +2242,6 @@
     <mergeCell ref="A22:A38"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7566166C-141F-4597-A1A9-3B1B0AFF6869}">
-  <dimension ref="A1:D58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8681.2099999999991</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.65188E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7.9707000000000007E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9.6671800000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.30000700000000002</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.8428E-2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.99989899999999998</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5.5284000000000002E-3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.6721800000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9.2140099999999999E-3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.8427999999999999E-3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8.9072800000000003E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1">
-        <v>33.139099999999999</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1">
-        <v>7.4999999999999997E-8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-1.2846900000000001E-7</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-2.3593699999999998E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1">
-        <v>-1.2842100000000001E-7</v>
-      </c>
-      <c r="D18" s="1">
-        <v>-2.3593699999999998E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1">
-        <v>-6.05E-5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>-1.26E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1">
-        <v>-5.5468700000000002E-7</v>
-      </c>
-      <c r="D20" s="1">
-        <v>-1.16406E-6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.76</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.7598400000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.5166300000000001E-2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.5166499999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="1">
-        <v>46.06</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5.4999999999999999E-6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.2942400000000001E-7</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2.3750000000000001E-6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="1">
-        <v>-1.6308600000000001E-7</v>
-      </c>
-      <c r="D31" s="1">
-        <v>-3.0000000000000001E-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="1">
-        <v>8.1875000000000008E-6</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.505E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="1">
-        <v>-5.04E-4</v>
-      </c>
-      <c r="D33" s="1">
-        <v>-1.0560000000000001E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="1">
-        <v>-5.4687499999999995E-7</v>
-      </c>
-      <c r="D34" s="1">
-        <v>-1.1484399999999999E-6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.99989899999999998</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.17E-5</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="1">
-        <v>7.4339000000000002E-3</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3.5934500000000002E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="1">
-        <v>79.650099999999995</v>
-      </c>
-      <c r="D39" s="1">
-        <v>85.013499999999993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2.4779699999999999E-3</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1.19782E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="1">
-        <v>4.5777900000000002</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="1">
-        <v>71.710999999999999</v>
-      </c>
-      <c r="D42" s="1">
-        <v>81.1113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1.8427999999999999E-3</v>
-      </c>
-      <c r="D43" s="1">
-        <v>8.90754E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="1">
-        <v>4.5777900000000002</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.99989899999999998</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="1">
-        <v>7.4339000000000002E-3</v>
-      </c>
-      <c r="D47" s="1">
-        <v>3.5848799999999999E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.15001400000000001</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2.4779699999999999E-3</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1.1949599999999999E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="1">
-        <v>24.6447</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1.31</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="1">
-        <v>7.4999999999999997E-8</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1.88125E-5</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3.48E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="1">
-        <v>-1.88125E-5</v>
-      </c>
-      <c r="D55" s="1">
-        <v>-3.4699999999999998E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="1">
-        <v>-1.6449999999999999E-4</v>
-      </c>
-      <c r="D56" s="1">
-        <v>-5.1599999999999997E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="1">
-        <v>-7.5625E-6</v>
-      </c>
-      <c r="D57" s="1">
-        <v>-1.5875E-5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A21"/>
-    <mergeCell ref="A22:A38"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2269,24 +2273,24 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
+      <c r="A2" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1">
         <v>0.01</v>
@@ -2296,9 +2300,9 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="15"/>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>2E-3</v>
@@ -2308,9 +2312,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1">
         <v>6.0000000000000001E-3</v>
@@ -2320,9 +2324,9 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>1E-4</v>
@@ -2332,21 +2336,21 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="15"/>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>7.4999999999999997E-8</v>
@@ -2356,9 +2360,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2368,9 +2372,9 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>1.31</v>
@@ -2383,9 +2387,9 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1">
         <v>-1.3199999999999999E-7</v>
@@ -2398,9 +2402,9 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="15"/>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1">
         <v>-3.7899999999999999E-7</v>
@@ -2413,9 +2417,9 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="15"/>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1">
         <v>-3.8000000000000002E-5</v>
@@ -2428,9 +2432,9 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="15"/>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <v>-1.3199999999999999E-7</v>
@@ -2441,11 +2445,11 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>4</v>
+      <c r="A14" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>1.562E-2</v>
@@ -2455,9 +2459,9 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="16"/>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
         <v>4.3299999999999996E-3</v>
@@ -2467,21 +2471,21 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="16"/>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="16"/>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1">
         <f>0.00244*3</f>
@@ -2493,9 +2497,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="16"/>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <f>1-0.0001</f>
@@ -2507,21 +2511,21 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="16"/>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="16"/>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1">
         <v>1.76</v>
@@ -2531,9 +2535,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="16"/>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>5.4999999999999999E-6</v>
@@ -2543,9 +2547,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="16"/>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2555,9 +2559,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="16"/>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>46.06</v>
@@ -2567,9 +2571,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="16"/>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1">
         <v>1.17E-5</v>
@@ -2587,9 +2591,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="16"/>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <v>0.03</v>
@@ -2599,9 +2603,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="16"/>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
         <v>1.3300000000000001E-7</v>
@@ -2611,9 +2615,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="16"/>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1">
         <v>-3.6699999999999999E-7</v>
@@ -2623,9 +2627,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="16"/>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1">
         <v>-4.64E-4</v>
@@ -2635,9 +2639,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="16"/>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
         <v>-1.6899999999999999E-7</v>
@@ -2647,9 +2651,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="16"/>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1">
         <v>8.2500000000000006E-6</v>
@@ -2659,11 +2663,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>3</v>
+      <c r="A31" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1">
         <v>0.15</v>
@@ -2673,9 +2677,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="15"/>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1">
         <v>2.4399999999999999E-3</v>
@@ -2685,9 +2689,9 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="15"/>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1">
         <f>0.00244*3</f>
@@ -2699,9 +2703,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="15"/>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>1E-4</v>
@@ -2711,21 +2715,21 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="15"/>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="15"/>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1">
         <v>7.4999999999999997E-8</v>
@@ -2735,9 +2739,9 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="15"/>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2747,9 +2751,9 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+      <c r="A38" s="15"/>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1">
         <v>1.31</v>
@@ -2759,9 +2763,9 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="A39" s="15"/>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1">
         <v>1.98E-5</v>
@@ -2771,9 +2775,9 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="15"/>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1">
         <v>-5.0599999999999998E-6</v>
@@ -2783,9 +2787,9 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="A41" s="15"/>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <v>-6.8999999999999997E-5</v>
@@ -2795,9 +2799,9 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
+      <c r="A42" s="15"/>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <v>-1.98E-5</v>
@@ -2807,11 +2811,11 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>23</v>
+      <c r="A43" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C43" s="1">
         <v>1.6E-2</v>
@@ -2821,9 +2825,9 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="16"/>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C44" s="1">
         <v>0.3</v>
@@ -2833,9 +2837,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="16"/>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1">
         <v>0.2</v>
@@ -2845,9 +2849,9 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="16"/>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C46" s="1">
         <v>0.02</v>
@@ -2857,9 +2861,9 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="16"/>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C47" s="1">
         <v>603.5</v>
